--- a/Eficiencias_SFA_2014-2023.xlsx
+++ b/Eficiencias_SFA_2014-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Desktop\memoria_2024\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE0F522-EF88-40F4-A0CF-9FD53CB8BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B803713-96A5-4C2D-9B00-9BD5361778B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eficiencias" sheetId="1" r:id="rId1"/>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10348,8 +10348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BCE9D-664A-406D-BAD7-BC6A43F9A13E}">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19144,7 +19144,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19255,8 +19255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E30ED0-5CD8-4EBA-93FC-8E913DCCF369}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20599,12 +20599,14 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="30.796875" customWidth="1"/>
+    <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
@@ -20687,7 +20689,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -20723,7 +20725,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -20759,7 +20761,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -20795,7 +20797,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -20981,7 +20983,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
@@ -21017,7 +21019,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2022</v>
       </c>
@@ -21053,7 +21055,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2023</v>
       </c>
@@ -21106,7 +21108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB791C1B-978C-4BBE-AEBF-2C45BCC0672B}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -44196,7 +44198,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="N162" s="12">
-        <f t="shared" ref="N162:N193" si="10">AVERAGE(D162:M162)</f>
+        <f t="shared" ref="N162:N179" si="10">AVERAGE(D162:M162)</f>
         <v>0.33004859999999997</v>
       </c>
       <c r="O162" s="11">
